--- a/actividad3_Angela/solucionItem1.3_optimizacion.xlsx
+++ b/actividad3_Angela/solucionItem1.3_optimizacion.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\TFG_OBS\actividad3_Angela\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DiegoLamprea/Dropbox/Maestria_OBS/TrabajoFinal/TrabajoGrupo/TFG_OBS/actividad3_Angela/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19500" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$L$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$2:$M$15</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -134,17 +140,20 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>4 dias 1 hora 5 minutos 5 segundos</t>
-  </si>
-  <si>
-    <t>11 dias 1 hora 20 minutos 5 segundos</t>
+    <t>4 dias 1 hora 
+5 minutos 5 segundos</t>
+  </si>
+  <si>
+    <t>11 dias 1 hora 
+20 minutos 
+5 segundos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,16 +170,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Abadi MT Condensed Light"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Light"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -200,60 +227,257 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -532,517 +756,528 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="B1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" customWidth="1"/>
-    <col min="11" max="11" width="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="25.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="33" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M2" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C3" s="5">
         <v>20</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5">
         <v>35</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="F3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="9">
+      <c r="J3" s="6">
         <v>20</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="9">
+      <c r="K3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="6">
         <v>30</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="M3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C4" s="5">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="F4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C5" s="5">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="F5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
         <v>10</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="K5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4">
         <v>10</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="M5" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C6" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E6" s="5">
         <v>4</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4">
         <v>4</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="7">
+      <c r="L6" s="4">
         <v>4</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M6" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="F7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="K7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
         <v>10</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="M7" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C8" s="5">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
         <v>4</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="9">
+      <c r="J8" s="6">
         <v>15</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="9">
+      <c r="K8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="6">
         <v>7</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="M8" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="9" spans="2:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C9" s="5">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="D9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="2:13" ht="75" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5">
         <v>30</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="F10" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="H10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="I10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="7">
-        <v>5</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="J10" s="4">
+        <v>5</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4">
         <v>15</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="M10" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7">
-        <v>5</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="7">
-        <v>5</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
+        <v>5</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4">
+        <v>5</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4">
-        <v>5</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7">
-        <v>5</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="7">
-        <v>5</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
+        <v>5</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4">
+        <v>5</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4">
-        <v>5</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
+      <c r="C13" s="5">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7">
-        <v>5</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="7">
-        <v>5</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
+        <v>5</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4">
+        <v>5</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="E14" s="5">
+        <v>5</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
+      <c r="G14" s="23"/>
+      <c r="H14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7">
-        <v>5</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
+        <v>5</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="7">
-        <v>5</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="L14" s="4">
+        <v>5</v>
+      </c>
+      <c r="M14" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="2:13" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" t="s">
+      <c r="F15" s="25"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K15" s="19"/>
+      <c r="L15" s="18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L14"/>
   <mergeCells count="14">
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L3:L4"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="44" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="14" max="1048575" man="1"/>
+  </colBreaks>
+  <ignoredErrors>
+    <ignoredError sqref="J7" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>